--- a/medicine/Enfance/Child_Exploitation_and_Online_Protection_Command/Child_Exploitation_and_Online_Protection_Command.xlsx
+++ b/medicine/Enfance/Child_Exploitation_and_Online_Protection_Command/Child_Exploitation_and_Online_Protection_Command.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Child Exploitation and Online Protection Command (CEOP Command ou CEOP) est un organisme de la police du Royaume-Uni, rattaché à la National Crime Agency. Fondé en avril 2006 sous le nom de Child Exploitation and Online Protection Centre, le CEOP est chargé de lutter, à l'échelle nationale et internationale, contre les abus sexuels sur mineurs sur Internet, y compris les personnes participant à la production, à la distribution et au visionnage de contenus pédopornographiques, afin de les traduire en justice devant les tribunaux du Royaume-Uni. Le 7 octobre 2013, le CEOP fusionne dans la NCA par effet de la loi Crime and Courts Act 2013 (en).
 </t>
@@ -511,10 +523,12 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CEOP rassemble les pouvoirs de la police avec les expertises émanant du secteur des affaires , du gouvernement, d'associations spécialisées et d'autres organisations.
-En 2015, le CEOP annonce recevoir chaque jour une alerte concernant le sexting de mineurs, ce qui expose les jeunes aux dangers de chantage ou d'exploitation[1].
+En 2015, le CEOP annonce recevoir chaque jour une alerte concernant le sexting de mineurs, ce qui expose les jeunes aux dangers de chantage ou d'exploitation.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Budget</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2012 et 2013, le budget du CEOP représente 6 millions de livres sterling[2]. En 2010, le CEOP compte 120 employés[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012 et 2013, le budget du CEOP représente 6 millions de livres sterling. En 2010, le CEOP compte 120 employés.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Arrestations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le CEOP remporte son premier procès en juin 2006 quand Lee Costi, 21 ans, originaire de Haslemere (Surrey) est condamné à la Nottingham Crown Court (en) : il admet s'être adonné à la sollicitation d’enfants à des fins sexuelles sur des écolières, et s'être trouvé en possession d'images indécentes d'enfants. Costi a été découvert quand une fille de Nottingham a parlé à sa mère de ses messages dans des discussions en ligne. Le juge Jonathan Teare condamne Costi à neuf ans d'emprisonnement[4].
-La CEOP déclare avoir perturbé ou démantelé 262 réseaux de criminels sexuels entre 2006 et 2010 et annonce que les enquêtes menées par ses détectives en ligne ont permis plus de 1 000 arrestations au cours de cette même période[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CEOP remporte son premier procès en juin 2006 quand Lee Costi, 21 ans, originaire de Haslemere (Surrey) est condamné à la Nottingham Crown Court (en) : il admet s'être adonné à la sollicitation d’enfants à des fins sexuelles sur des écolières, et s'être trouvé en possession d'images indécentes d'enfants. Costi a été découvert quand une fille de Nottingham a parlé à sa mère de ses messages dans des discussions en ligne. Le juge Jonathan Teare condamne Costi à neuf ans d'emprisonnement.
+La CEOP déclare avoir perturbé ou démantelé 262 réseaux de criminels sexuels entre 2006 et 2010 et annonce que les enquêtes menées par ses détectives en ligne ont permis plus de 1 000 arrestations au cours de cette même période.
 </t>
         </is>
       </c>
